--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H2">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I2">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J2">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>32.91609089658445</v>
+        <v>900.2828070422559</v>
       </c>
       <c r="R2">
-        <v>296.24481806926</v>
+        <v>8102.545263380303</v>
       </c>
       <c r="S2">
-        <v>0.03132942390360453</v>
+        <v>0.2342645463194269</v>
       </c>
       <c r="T2">
-        <v>0.03132942390360452</v>
+        <v>0.2342645463194269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H3">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I3">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J3">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
-        <v>111.7342990432845</v>
+        <v>1540.15234235016</v>
       </c>
       <c r="R3">
-        <v>1005.60869138956</v>
+        <v>13861.37108115144</v>
       </c>
       <c r="S3">
-        <v>0.1063483276400361</v>
+        <v>0.4007663890959189</v>
       </c>
       <c r="T3">
-        <v>0.1063483276400361</v>
+        <v>0.4007663890959189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H4">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I4">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J4">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
-        <v>25.75371069480222</v>
+        <v>354.9907073336758</v>
       </c>
       <c r="R4">
-        <v>231.78339625322</v>
+        <v>3194.916366003082</v>
       </c>
       <c r="S4">
-        <v>0.02451229467020263</v>
+        <v>0.09237290365940835</v>
       </c>
       <c r="T4">
-        <v>0.02451229467020263</v>
+        <v>0.09237290365940834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>20.318999</v>
       </c>
       <c r="I5">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J5">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N5">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O5">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P5">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q5">
-        <v>53.78034235686589</v>
+        <v>106.7129422104534</v>
       </c>
       <c r="R5">
-        <v>484.023081211793</v>
+        <v>960.4164798940809</v>
       </c>
       <c r="S5">
-        <v>0.05118794782384272</v>
+        <v>0.02776800667278514</v>
       </c>
       <c r="T5">
-        <v>0.05118794782384272</v>
+        <v>0.02776800667278513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>20.318999</v>
       </c>
       <c r="I6">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J6">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q6">
         <v>182.5583990040509</v>
@@ -818,10 +818,10 @@
         <v>1643.025591036458</v>
       </c>
       <c r="S6">
-        <v>0.1737584662629172</v>
+        <v>0.04750391786330934</v>
       </c>
       <c r="T6">
-        <v>0.1737584662629172</v>
+        <v>0.04750391786330933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>20.318999</v>
       </c>
       <c r="I7">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J7">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q7">
         <v>42.07800320146344</v>
@@ -880,10 +880,10 @@
         <v>378.702028813171</v>
       </c>
       <c r="S7">
-        <v>0.0400497010248768</v>
+        <v>0.01094920868521657</v>
       </c>
       <c r="T7">
-        <v>0.04004970102487681</v>
+        <v>0.01094920868521657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>43.921413</v>
       </c>
       <c r="I8">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J8">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N8">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O8">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P8">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q8">
-        <v>116.251230089499</v>
+        <v>230.669985626283</v>
       </c>
       <c r="R8">
-        <v>1046.261070805491</v>
+        <v>2076.029870636547</v>
       </c>
       <c r="S8">
-        <v>0.1106475273212744</v>
+        <v>0.060023138406678</v>
       </c>
       <c r="T8">
-        <v>0.1106475273212744</v>
+        <v>0.060023138406678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.921413</v>
       </c>
       <c r="I9">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J9">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>80.861542</v>
       </c>
       <c r="O9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q9">
         <v>394.617020222094</v>
@@ -1004,10 +1004,10 @@
         <v>3551.553181998846</v>
       </c>
       <c r="S9">
-        <v>0.3755951441791079</v>
+        <v>0.1026841526786082</v>
       </c>
       <c r="T9">
-        <v>0.3755951441791081</v>
+        <v>0.1026841526786082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.921413</v>
       </c>
       <c r="I10">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J10">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.637829</v>
       </c>
       <c r="O10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q10">
         <v>90.955531659153</v>
@@ -1066,10 +1066,10 @@
         <v>818.599784932377</v>
       </c>
       <c r="S10">
-        <v>0.08657116717413772</v>
+        <v>0.0236677366186486</v>
       </c>
       <c r="T10">
-        <v>0.08657116717413775</v>
+        <v>0.0236677366186486</v>
       </c>
     </row>
   </sheetData>
